--- a/AutoFirmwareUpgrade/CashelFirmwareAutomatedTest/TestDataFiles/CablingDataSet/4U1U3I3I3I.xlsx
+++ b/AutoFirmwareUpgrade/CashelFirmwareAutomatedTest/TestDataFiles/CablingDataSet/4U1U3I3I3I.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004DAA68-9E09-44DC-A70B-B6D2456BAA1B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C2072D-33A6-4477-BA7D-53D4E6F1BA46}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DeviceInfo" sheetId="3" r:id="rId1"/>
@@ -1576,7 +1576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6DB7828-47D0-41D3-BCED-407FEBF5DCA0}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B7"/>
     </sheetView>
   </sheetViews>
@@ -1648,8 +1648,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1742,7 +1742,7 @@
         <v>93</v>
       </c>
       <c r="B11" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2074,7 +2074,7 @@
         <v>3</v>
       </c>
       <c r="D5">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2088,7 +2088,7 @@
         <v>4</v>
       </c>
       <c r="D6">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2102,7 +2102,7 @@
         <v>5</v>
       </c>
       <c r="D7">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2124,7 +2124,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C9">
         <v>7</v>
@@ -2137,8 +2137,8 @@
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>15</v>
+      <c r="B10" s="2">
+        <v>8</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -2151,8 +2151,8 @@
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>16</v>
+      <c r="B11" s="2">
+        <v>9</v>
       </c>
       <c r="C11">
         <v>9</v>
@@ -2165,8 +2165,8 @@
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>11</v>
+      <c r="B12" s="2">
+        <v>13</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -2179,7 +2179,7 @@
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <v>12</v>
       </c>
       <c r="C13">

--- a/AutoFirmwareUpgrade/CashelFirmwareAutomatedTest/TestDataFiles/CablingDataSet/4U1U3I3I3I.xlsx
+++ b/AutoFirmwareUpgrade/CashelFirmwareAutomatedTest/TestDataFiles/CablingDataSet/4U1U3I3I3I.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C2072D-33A6-4477-BA7D-53D4E6F1BA46}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948D8FF8-A2BC-4E4D-8756-E5D00F0ADCD0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DeviceInfo" sheetId="3" r:id="rId1"/>
@@ -775,8 +775,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AB23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15:E17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1131,7 +1131,7 @@
         <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
         <v>15</v>
@@ -1178,7 +1178,7 @@
         <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
         <v>16</v>
@@ -1333,7 +1333,7 @@
         <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="G14" t="s">
         <v>17</v>
@@ -1368,7 +1368,7 @@
         <v>68</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="G15" t="s">
         <v>15</v>
@@ -1402,8 +1402,8 @@
       <c r="E16" t="s">
         <v>68</v>
       </c>
-      <c r="F16" t="s">
-        <v>13</v>
+      <c r="F16" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="G16" t="s">
         <v>16</v>
@@ -1437,8 +1437,8 @@
       <c r="E17" t="s">
         <v>68</v>
       </c>
-      <c r="F17" t="s">
-        <v>13</v>
+      <c r="F17" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="G17" t="s">
         <v>17</v>
@@ -1648,8 +1648,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1838,7 +1838,7 @@
         <v>105</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">

--- a/AutoFirmwareUpgrade/CashelFirmwareAutomatedTest/TestDataFiles/CablingDataSet/4U1U3I3I3I.xlsx
+++ b/AutoFirmwareUpgrade/CashelFirmwareAutomatedTest/TestDataFiles/CablingDataSet/4U1U3I3I3I.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948D8FF8-A2BC-4E4D-8756-E5D00F0ADCD0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD739613-7BF1-4238-8C9E-682F2E0D86F8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DeviceInfo" sheetId="3" r:id="rId1"/>
@@ -775,7 +775,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AB23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F15" sqref="F15:F17"/>
     </sheetView>
   </sheetViews>
@@ -1648,7 +1648,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
@@ -1838,7 +1838,7 @@
         <v>105</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
